--- a/backend/scripts/questions.xlsx
+++ b/backend/scripts/questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\專題 - 複製\backend\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\test\backend\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9919ABB9-1F4E-4179-9D6E-717A6EB18808}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6BFD51-C321-42DE-8392-8D8A4D60C941}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>question</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>correctAnswer</t>
   </si>
   <si>
     <t>level</t>
@@ -305,6 +302,14 @@
   </si>
   <si>
     <t>防火牆</t>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correctanswer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -659,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -671,470 +676,519 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/backend/scripts/questions.xlsx
+++ b/backend/scripts/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\test\backend\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6BFD51-C321-42DE-8392-8D8A4D60C941}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29907DE8-B32A-4D3F-9630-A68405F95A3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
   <si>
     <t>question</t>
   </si>
@@ -45,12 +45,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
     <t>Vue 3 的組合式 API 入口點是什麼函式？</t>
   </si>
   <si>
@@ -309,6 +303,70 @@
   </si>
   <si>
     <t>correctanswer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bajwgbio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slknklnl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdlknklenb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sadnkbnkjn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdjbknjknjk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiihbjk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdkjbnjk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsnjbj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asjkbgj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>askhk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanbjnj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdkbnk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsbnko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdbk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smdnbk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +404,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -369,11 +427,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,292 +736,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.125" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5</v>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>12345678</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>15</v>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>15</v>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>51</v>
@@ -957,226 +1007,205 @@
       <c r="G9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>20</v>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>20</v>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>15</v>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>15</v>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>20</v>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2">
-        <v>25</v>
+      <c r="D15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>25</v>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>88</v>
@@ -1184,11 +1213,8 @@
       <c r="H16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>91</v>
+      <c r="I16" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
